--- a/P06/Scrum_MICE.xlsx
+++ b/P06/Scrum_MICE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddharth\Downloads\cse1325\P05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddharth\Downloads\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B041BB4-346C-4B2B-AC5E-AE2E1BB5D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FAB7A-998C-41E8-9704-73AAF12CA3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
   <si>
     <t>Product Name:</t>
   </si>
@@ -583,6 +583,18 @@
   </si>
   <si>
     <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>In Work</t>
   </si>
 </sst>
 </file>
@@ -1037,19 +1049,19 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1679,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,8 +3716,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -3937,11 +3949,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
@@ -3961,7 +3973,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 3")</f>
@@ -3985,7 +3997,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 4")</f>
@@ -4005,7 +4017,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 5")</f>
@@ -4025,7 +4037,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 6")</f>
@@ -4274,8 +4286,12 @@
       <c r="E28" s="9">
         <v>13</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="H28" s="12" t="s">
         <v>31</v>
       </c>
@@ -4303,8 +4319,12 @@
       <c r="E29" s="9">
         <v>13</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="H29" s="12" t="s">
         <v>31</v>
       </c>
@@ -4332,8 +4352,12 @@
       <c r="E30" s="9">
         <v>5</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="14">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="H30" s="12" t="s">
         <v>31</v>
       </c>
@@ -4361,8 +4385,12 @@
       <c r="E31" s="9">
         <v>8</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>57</v>
       </c>
@@ -5687,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -5965,7 +5993,9 @@
       <c r="D17" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -5978,7 +6008,9 @@
         <v>179</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
@@ -5991,7 +6023,9 @@
         <v>179</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -6004,7 +6038,9 @@
         <v>179</v>
       </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
@@ -6703,8 +6739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" zoomScale="119" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -6932,11 +6968,11 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -6978,35 +7014,63 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">

--- a/P06/Scrum_MICE.xlsx
+++ b/P06/Scrum_MICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddharth\Downloads\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FAB7A-998C-41E8-9704-73AAF12CA3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C61507-EB61-43E4-B47B-2D7BF7D765EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="184">
   <si>
     <t>Product Name:</t>
   </si>
@@ -592,9 +592,6 @@
   </si>
   <si>
     <t>Finished in Sprint 2</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
 </sst>
 </file>
@@ -1049,19 +1046,19 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1676,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,8 +3713,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -3949,11 +3946,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 2")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
@@ -3973,7 +3970,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 3")</f>
@@ -3997,7 +3994,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 4")</f>
@@ -4017,7 +4014,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 5")</f>
@@ -4037,7 +4034,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 6")</f>
@@ -4356,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>31</v>
@@ -4389,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>57</v>
@@ -6739,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="119" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="119" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -6968,11 +6965,11 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -7054,7 +7051,7 @@
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7069,7 +7066,7 @@
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
